--- a/examples/trainData/rowsRemoved_sample.xlsx
+++ b/examples/trainData/rowsRemoved_sample.xlsx
@@ -438,6 +438,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>new_index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ROWID</t>
@@ -520,8 +525,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna Müller_2</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -583,8 +590,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>5</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mária Williams_5</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -646,8 +655,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>9</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Marie Fischer_9</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>10</v>
@@ -709,8 +720,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>10</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Marie Fischer_10</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>11</v>
@@ -772,8 +785,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>16</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Charlotte Carter_16</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>17</v>
@@ -835,8 +850,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>17</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Charlotte Carter_17</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>18</v>
@@ -898,8 +915,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>20</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Élisabeth Louise_20</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>21</v>
@@ -961,8 +980,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>23</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Émile Noël_23</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>24</v>
@@ -1024,8 +1045,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>27</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>David Lloyd Evans_27</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>28</v>
@@ -1087,8 +1110,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>29</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Vittoria Rossi_29</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>30</v>
